--- a/target/classes/testData/CustomerSuite.xlsx
+++ b/target/classes/testData/CustomerSuite.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srg_kosenko/Documents/School projects/Data Driven Project Udemy/TestDataProject/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1F104DF-F48B-7A4E-8302-E5E5F3457A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C413186-8051-3541-A76F-A786C3130569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{4CA5D088-D712-BB41-AE6F-8FEFDB1B628F}"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{ECA211D5-CE7C-3240-89EE-A4C5F2E35CB3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Suite" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,24 +35,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>SuiteName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+  <si>
+    <t>TestCases</t>
   </si>
   <si>
     <t>Runmode</t>
   </si>
   <si>
-    <t>BankManagerSuite</t>
-  </si>
-  <si>
-    <t>CustomerSuite</t>
+    <t>AddCustomerTest</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
+    <t>OpenAccount</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Ramen</t>
+  </si>
+  <si>
+    <t>Spicy</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>OpenAccountTest</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Ramen Aurora</t>
+  </si>
+  <si>
+    <t>Rahul Shitty</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Mashka Bi</t>
+  </si>
+  <si>
+    <t>Shrimp</t>
+  </si>
+  <si>
+    <t>777BB</t>
   </si>
 </sst>
 </file>
@@ -402,43 +451,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610A9DB4-9D59-7644-935C-8462562C032D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C08364D-1BE6-7C40-9F9B-7C7B4037F086}">
   <dimension ref="A1:B3"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653BD23D-0E9E-7949-B5D7-D5577A4AF277}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>66666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/target/classes/testData/CustomerSuite.xlsx
+++ b/target/classes/testData/CustomerSuite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srg_kosenko/Documents/School projects/Data Driven Project Udemy/TestDataProject/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C413186-8051-3541-A76F-A786C3130569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3760B5-7299-FD41-B343-A6A8F5DB7087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{ECA211D5-CE7C-3240-89EE-A4C5F2E35CB3}"/>
+    <workbookView xWindow="15280" yWindow="2360" windowWidth="28040" windowHeight="17440" xr2:uid="{ECA211D5-CE7C-3240-89EE-A4C5F2E35CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C08364D-1BE6-7C40-9F9B-7C7B4037F086}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653BD23D-0E9E-7949-B5D7-D5577A4AF277}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
